--- a/downloaded_files/CMPS346_Tutorial-35537.xlsx
+++ b/downloaded_files/CMPS346_Tutorial-35537.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -283,15 +283,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Mamdouh Sayed Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود على عباس حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohmoud Ali Abas Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1210295</x:t>
@@ -461,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1748,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4458182523</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45912.321941169</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.321941169</x:v>
+        <x:v>45906.4762460648</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4762460648</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1899,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45914.0585266204</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1925,38 +1916,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45914.0585266204</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS346_Tutorial-35537.xlsx
+++ b/downloaded_files/CMPS346_Tutorial-35537.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -292,15 +292,6 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Mohammed Mounir Loutfy Mohammed Abdel-Moniem Loutfy Loutfy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>معاذ محمد السيد هاشم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moaz Mohamed Alsayed Hashem</x:t>
   </x:si>
   <x:si>
     <x:t>1210319</x:t>
@@ -452,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1771,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.321941169</x:v>
+        <x:v>45906.4762460648</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4762460648</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1858,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45914.0585266204</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1885,38 +1876,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45914.0585266204</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1929,9 +1888,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Computer Graphics and Real-Time Rendering (CMPS346) Location : [3708]3708-45-الجيزة الرئيسي Time : Monday(16:19)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/CMPS346_Tutorial-35537.xlsx
+++ b/downloaded_files/CMPS346_Tutorial-35537.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1210194</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد عشري بخيت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Ashry Bekhet</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210405</x:t>
   </x:si>
   <x:si>
@@ -96,6 +87,15 @@
     <x:t>Ziad Hesham Fahmy Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210054</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد هيثم شرف الدين محمد على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZIAD HAITHAM SHARAF ELDIN</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210386</x:t>
   </x:si>
   <x:si>
@@ -186,15 +186,6 @@
     <x:t>Amr Ayman Farouck Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>4220133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فاروق ضياء الدين فاروق السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farouq Diaa Eldin Farouk ElSayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210111</x:t>
   </x:si>
   <x:si>
@@ -265,15 +256,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Amar Ali Awaad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد ماهر محمد رفعت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Maher Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210416</x:t>
@@ -443,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +725,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -834,7 +816,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.4144664352</x:v>
+        <x:v>45914.061227581</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -866,7 +848,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45914.061227581</x:v>
+        <x:v>45913.7462855324</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -898,7 +880,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45913.7462855324</x:v>
+        <x:v>45906.4144067477</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -930,7 +912,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4144067477</x:v>
+        <x:v>45906.6642293634</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -962,7 +944,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6642293634</x:v>
+        <x:v>45909.4157207176</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -994,7 +976,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.4157207176</x:v>
+        <x:v>45906.4141704051</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1026,7 +1008,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4141704051</x:v>
+        <x:v>45927.4143025463</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1378,7 +1360,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4147705208</x:v>
+        <x:v>45912.7015869213</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1410,7 +1392,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.7015869213</x:v>
+        <x:v>45914.0577082523</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1442,7 +1424,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.0577082523</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1474,7 +1456,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45912.321468669</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1506,7 +1488,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.321468669</x:v>
+        <x:v>45912.3221449074</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1538,7 +1520,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.3221449074</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1570,7 +1552,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45906.4149950579</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1602,7 +1584,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4149950579</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1634,7 +1616,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45914.0599210301</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1666,7 +1648,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1698,7 +1680,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.0599210301</x:v>
+        <x:v>45906.4762460648</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1712,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1744,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4762460648</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1776,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45914.0585266204</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1811,70 +1793,6 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45906.4144973032</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45914.0585266204</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS346_Tutorial-35537.xlsx
+++ b/downloaded_files/CMPS346_Tutorial-35537.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -283,15 +283,6 @@
   </x:si>
   <x:si>
     <x:t>Nour Nader Mohamed Elhusseiny Sayed Khalil</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نوران شمس الدين محمد علوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nouran Shams Eldeen</x:t>
   </x:si>
   <x:si>
     <x:t>1210334</x:t>
@@ -425,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1712,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1744,7 +1735,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45914.0585266204</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1761,38 +1752,6 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45914.0585266204</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS346_Tutorial-35537.xlsx
+++ b/downloaded_files/CMPS346_Tutorial-35537.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mohammed Mahmoud Mohammed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اكمل محمد عماد عصمت نورالدين عصمت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Akmal mohamed emad esmat</x:t>
   </x:si>
   <x:si>
     <x:t>1210205</x:t>
@@ -416,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +725,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -839,7 +848,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45913.7462855324</x:v>
+        <x:v>45928.8714659722</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -871,7 +880,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4144067477</x:v>
+        <x:v>45913.7462855324</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -903,7 +912,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6642293634</x:v>
+        <x:v>45906.4144067477</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -935,7 +944,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.4157207176</x:v>
+        <x:v>45906.6642293634</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -967,7 +976,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4141704051</x:v>
+        <x:v>45909.4157207176</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -999,7 +1008,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.4143025463</x:v>
+        <x:v>45906.4141704051</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1031,7 +1040,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4142010417</x:v>
+        <x:v>45927.4143025463</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1063,7 +1072,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45906.4142010417</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1095,7 +1104,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.7014659375</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1127,7 +1136,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4145929051</x:v>
+        <x:v>45912.7014659375</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1159,7 +1168,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6642143519</x:v>
+        <x:v>45906.4145929051</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1191,7 +1200,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4167520833</x:v>
+        <x:v>45906.6642143519</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1223,7 +1232,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45906.4167520833</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1255,7 +1264,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.7015318287</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1287,7 +1296,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45918.1419658218</x:v>
+        <x:v>45912.7015318287</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1319,7 +1328,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.701390706</x:v>
+        <x:v>45918.1419658218</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1360,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.7015869213</x:v>
+        <x:v>45912.701390706</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1392,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.0577082523</x:v>
+        <x:v>45912.7015869213</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1424,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45914.0577082523</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1456,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.321468669</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1488,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.3221449074</x:v>
+        <x:v>45912.321468669</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1520,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45912.3221449074</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1552,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4149950579</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1584,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.4149950579</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1616,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.0599210301</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1648,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45914.0599210301</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1680,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4762460648</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1712,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45906.4762460648</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1735,7 +1744,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.0585266204</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1752,6 +1761,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45914.0585266204</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS346_Tutorial-35537.xlsx
+++ b/downloaded_files/CMPS346_Tutorial-35537.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,15 +40,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mohammed Mahmoud Mohammed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اكمل محمد عماد عصمت نورالدين عصمت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Akmal mohamed emad esmat</x:t>
   </x:si>
   <x:si>
     <x:t>1210205</x:t>
@@ -425,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -848,7 +839,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45928.8714659722</x:v>
+        <x:v>45913.7462855324</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -880,7 +871,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45913.7462855324</x:v>
+        <x:v>45906.4144067477</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -912,7 +903,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4144067477</x:v>
+        <x:v>45906.6642293634</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -944,7 +935,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6642293634</x:v>
+        <x:v>45909.4157207176</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -976,7 +967,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.4157207176</x:v>
+        <x:v>45906.4141704051</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1008,7 +999,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4141704051</x:v>
+        <x:v>45927.4143025463</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1040,7 +1031,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4143025463</x:v>
+        <x:v>45906.4142010417</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1072,7 +1063,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4142010417</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1104,7 +1095,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45912.7014659375</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1136,7 +1127,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.7014659375</x:v>
+        <x:v>45906.4145929051</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1168,7 +1159,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4145929051</x:v>
+        <x:v>45906.6642143519</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1200,7 +1191,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6642143519</x:v>
+        <x:v>45906.4167520833</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1232,7 +1223,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4167520833</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1264,7 +1255,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45912.7015318287</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1296,7 +1287,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.7015318287</x:v>
+        <x:v>45918.1419658218</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1328,7 +1319,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45918.1419658218</x:v>
+        <x:v>45912.701390706</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1360,7 +1351,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.701390706</x:v>
+        <x:v>45912.7015869213</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1392,7 +1383,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.7015869213</x:v>
+        <x:v>45914.0577082523</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1424,7 +1415,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.0577082523</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1456,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45912.321468669</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.321468669</x:v>
+        <x:v>45912.3221449074</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.3221449074</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45906.4149950579</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4149950579</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45914.0599210301</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.0599210301</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45906.4762460648</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4762460648</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1744,7 +1735,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45914.0585266204</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1761,38 +1752,6 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45914.0585266204</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS346_Tutorial-35537.xlsx
+++ b/downloaded_files/CMPS346_Tutorial-35537.xlsx
@@ -39,7 +39,7 @@
     <x:t>احمد محمد محمود محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohammed Mahmoud Mohammed</x:t>
+    <x:t>Ahmed Mohamed Mahmoud Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210205</x:t>
@@ -201,7 +201,7 @@
     <x:t>لؤى احمد كمال عبدالغفار عثمان</x:t>
   </x:si>
   <x:si>
-    <x:t>Loay Ahmed Kamal Abdul Ghaffar Othman</x:t>
+    <x:t>Loay Ahmed Kamal Abdelghafar Othman</x:t>
   </x:si>
   <x:si>
     <x:t>1210024</x:t>
@@ -264,7 +264,7 @@
     <x:t>محمد ممدوح سيد محمد السمرى</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Mamdouh Sayed Mohamed</x:t>
+    <x:t>Mohamed Mamdouh Sayed Mohamed Elsemary</x:t>
   </x:si>
   <x:si>
     <x:t>1210295</x:t>
